--- a/examples/ex051.MF_pipeline.xlsx
+++ b/examples/ex051.MF_pipeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC80772-FBF0-4821-9B14-8B67627AC255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC90C07F-1F7A-490C-941A-9A75F97232B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
+    <workbookView xWindow="-33990" yWindow="675" windowWidth="27990" windowHeight="19740" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="трубопровод" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,11 @@
     <definedName name="muob_" localSheetId="0">трубопровод!$C$13</definedName>
     <definedName name="P0">трубопровод!$C$20</definedName>
     <definedName name="P1_">трубопровод!$C$21</definedName>
+    <definedName name="Pann">трубопровод!$D$78</definedName>
     <definedName name="Pb_" localSheetId="0">трубопровод!$C$10</definedName>
+    <definedName name="PVT_gas">трубопровод!$C$80</definedName>
     <definedName name="PVTstr_">трубопровод!$C$25</definedName>
+    <definedName name="Pwf">трубопровод!$D$79</definedName>
     <definedName name="Qgas_free">трубопровод!$C$17</definedName>
     <definedName name="qliq_">трубопровод!$C$16</definedName>
     <definedName name="Rp_" localSheetId="0">трубопровод!$C$9</definedName>
@@ -146,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>Упражнения по работе с макросами Unifloc VBA</t>
   </si>
@@ -734,6 +737,15 @@
   <si>
     <t xml:space="preserve"> +r </t>
   </si>
+  <si>
+    <t>Pann</t>
+  </si>
+  <si>
+    <t>Pwf</t>
+  </si>
+  <si>
+    <t>Hd</t>
+  </si>
 </sst>
 </file>
 
@@ -831,7 +843,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +883,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,6 +1091,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2255,61 +2275,61 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.459480340621788</c:v>
+                  <c:v>18.360824860129437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.03958799365309</c:v>
+                  <c:v>28.878614078221915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.565868145484444</c:v>
+                  <c:v>40.769268486240286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.749846969339941</c:v>
+                  <c:v>52.730681864990871</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.798155955830978</c:v>
+                  <c:v>65.169759432482138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.436377234594616</c:v>
+                  <c:v>77.446424962849008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103.36881985821364</c:v>
+                  <c:v>89.543956622310475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116.77173124095837</c:v>
+                  <c:v>101.38987239040408</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>129.62512369521343</c:v>
+                  <c:v>112.87559058574314</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>141.8902102126406</c:v>
+                  <c:v>123.86853283720023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153.5680465100362</c:v>
+                  <c:v>134.3452854364873</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>164.66549637967603</c:v>
+                  <c:v>144.30342965568909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>175.18006007395761</c:v>
+                  <c:v>153.73583667787636</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>185.10919833852711</c:v>
+                  <c:v>162.63765403143907</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>194.29155183755142</c:v>
+                  <c:v>170.86385453225819</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>197.83219293156648</c:v>
+                  <c:v>174.0347046241402</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>199.08974646498407</c:v>
+                  <c:v>175.16064031385659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200.34675140482437</c:v>
+                  <c:v>176.28593679699944</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>201.60320791861258</c:v>
+                  <c:v>177.41058592041975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2435,61 +2455,61 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>10.837957655572676</c:v>
+                  <c:v>25.594499950786386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.615844815484813</c:v>
+                  <c:v>37.335517408638488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.520894563963665</c:v>
+                  <c:v>49.997908574697021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.230693380182807</c:v>
+                  <c:v>62.620013985770377</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.395442765654231</c:v>
+                  <c:v>75.194983556563429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.417860882323538</c:v>
+                  <c:v>88.07757893936008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.03101470599411</c:v>
+                  <c:v>100.99209928029657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104.94898924783087</c:v>
+                  <c:v>113.55694517542557</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>118.33421378086312</c:v>
+                  <c:v>125.75787546393317</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131.15217379432792</c:v>
+                  <c:v>137.51293635679394</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>143.38197024916602</c:v>
+                  <c:v>148.72211579166802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155.02849466516992</c:v>
+                  <c:v>159.37769700962565</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>166.09815261586797</c:v>
+                  <c:v>169.48651456755701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>176.58819824989865</c:v>
+                  <c:v>179.04745953064864</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>186.49647104387196</c:v>
+                  <c:v>188.06003556423988</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>195.667092559998</c:v>
+                  <c:v>196.38243464080321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>199.20571828456147</c:v>
+                  <c:v>199.58820686470293</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200.46352950271441</c:v>
+                  <c:v>200.7262311096982</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>201.72351408931311</c:v>
+                  <c:v>201.86349521589221</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>203</c:v>
@@ -3395,64 +3415,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>21.610107756239305</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.469257025065538</c:v>
+                  <c:v>21.842105263157894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.278784827026968</c:v>
+                  <c:v>23.684210526315791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.043193630391414</c:v>
+                  <c:v>25.526315789473685</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.826052776323554</c:v>
+                  <c:v>27.368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.628419762228432</c:v>
+                  <c:v>29.208505263157896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.421508074475369</c:v>
+                  <c:v>31.007473684210527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.364822782519916</c:v>
+                  <c:v>32.737305263157893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.623668289542707</c:v>
+                  <c:v>34.400989473684206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.1677274441926</c:v>
+                  <c:v>40.485178947368425</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.314478987057193</c:v>
+                  <c:v>48.894389473684214</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.106100132016742</c:v>
+                  <c:v>56.933073684210527</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.536156232475449</c:v>
+                  <c:v>64.601231578947377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.570415827953781</c:v>
+                  <c:v>71.893073684210535</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81.991623615173907</c:v>
+                  <c:v>78.802810526315781</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86.378126341843497</c:v>
+                  <c:v>84.906123308270679</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.639268267569022</c:v>
+                  <c:v>87.351315789473688</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>87.380938631114802</c:v>
+                  <c:v>88.234210526315806</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.388373769177903</c:v>
+                  <c:v>89.11710526315791</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3869,6 +3889,667 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>трубопровод!$T$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>трубопровод!$F$86:$F$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.48405669482004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.974240810364659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.470589009981239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.973137826272819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.481872374464743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.987770885796248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.478602768945521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.955929592187996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.415432148054048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.847997503772842</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.253871670139414</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.634558008213975</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.990979383761346</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.323941325283361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.62904209277977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.746130160788294</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.787595735449326</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.828995068669133</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.870328548727464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>трубопровод!$D$86:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184.21052631578948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>368.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>552.63157894736844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>736.84210526315792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>921.0526315789474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1105.2631578947369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1289.4736842105262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1473.6842105263158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1657.8947368421054</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1842.1052631578948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2026.3157894736842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2210.5263157894738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2394.7368421052633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2578.9473684210525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2763.1578947368421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2947.3684210526317</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3131.5789473684213</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3315.7894736842109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-884E-4420-B9C5-F6A2B9DF9AC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>трубопровод!$R$86:$R$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7564176576288375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.525707698194761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.279775953233447</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.412213769426231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.937722742488134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.819421524261003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.028361457000941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.5797438892626</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>113.52641729133944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123.90394793048451</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133.70767650649358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142.77812147916777</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146.27544167602196</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147.51747252066414</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148.75899228149797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>трубопровод!$P$86:$P$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184.21052631578948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>368.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>552.63157894736844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>736.84210526315792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>921.0526315789474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1105.2631578947369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1289.4736842105262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1473.6842105263158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1657.8947368421054</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1842.1052631578948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2026.3157894736842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2210.5263157894738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2394.7368421052633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2578.9473684210525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2763.1578947368421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2947.3684210526317</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3131.5789473684213</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3315.7894736842109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-884E-4420-B9C5-F6A2B9DF9AC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1583757615"/>
+        <c:axId val="1849416287"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1583757615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Отклонение</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1849416287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1849416287"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Вертикальная глубина, м</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1583757615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3989,6 +4670,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5022,6 +5743,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6519,6 +7756,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>177894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Диаграмма 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A1273E-AB16-4A3E-B5AE-66BF699C6015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6529,6 +7804,7 @@
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
+      <definedName name="crv_intersection"/>
       <definedName name="getUFVersion"/>
       <definedName name="MF_calibr_pipeline"/>
       <definedName name="MF_p_pipeline_atma"/>
@@ -6839,10 +8115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A7C6B1-D08D-4B8C-90EB-0A5185B9FB63}">
   <sheetPr codeName="Worksheet____1"/>
-  <dimension ref="A1:AE60"/>
+  <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7072,13 +8348,13 @@
       </c>
       <c r="H20" s="36" cm="1">
         <f t="array" ref="H20:L21">[1]!MF_calibr_pipeline(qliq_,fw_,inclinometry,P0,P1_,T0,1,0,+PVTstr_,H38:I41,hcor,E38:F43,temp_model,,,,Qgas_free)</f>
-        <v>0.98726654052734375</v>
+        <v>1.1190414428710938</v>
       </c>
       <c r="I20" s="27" t="str">
         <v>calibr_grav</v>
       </c>
       <c r="J20" s="27">
-        <v>-2.0847175747462643E-4</v>
+        <v>-2.5877348997482841E-4</v>
       </c>
       <c r="K20" s="27">
         <v>17</v>
@@ -7199,11 +8475,11 @@
         <v>49</v>
       </c>
       <c r="H28" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="36" cm="1">
         <f t="array" ref="K28:S50">[1]!MF_p_pipeline_atma(qliq_,fw_,inclinometry,P0,T0,1,0,PVTstr_,H38:I57,hcor,E38:F40,tempm,,,,Qgas_free)</f>
-        <v>201.60320791861258</v>
+        <v>177.41058592041975</v>
       </c>
       <c r="L28" s="27">
         <v>90</v>
@@ -7215,7 +8491,7 @@
         <v>20</v>
       </c>
       <c r="O28" s="27">
-        <v>201.60320791861258</v>
+        <v>177.41058592041975</v>
       </c>
       <c r="P28" s="27">
         <v>90</v>
@@ -7234,22 +8510,22 @@
       <c r="V28" s="15"/>
       <c r="W28" s="36" cm="1">
         <f t="array" ref="W28:AE50">[1]!MF_p_pipeline_atma(qliq_,fw_,inclinometry,P1_,T1_,0,0,PVTstr_,H38:I57,hcor,E38:F40,tempm,,,,Qgas_free)</f>
-        <v>10.837957655572676</v>
+        <v>25.594499950786386</v>
       </c>
       <c r="X28" s="27">
-        <v>21.610107756239305</v>
+        <v>20</v>
       </c>
       <c r="Y28" s="27">
-        <v>10.837957655572676</v>
+        <v>25.594499950786386</v>
       </c>
       <c r="Z28" s="27">
-        <v>21.610107756239305</v>
+        <v>20</v>
       </c>
       <c r="AA28" s="27">
         <v>203</v>
       </c>
       <c r="AB28" s="27">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AC28" s="27">
         <v>1</v>
@@ -7276,7 +8552,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="29" t="str">
         <v>p_result_atma</v>
@@ -7450,10 +8726,10 @@
         <v>20</v>
       </c>
       <c r="P31" s="32">
-        <v>0.44054959140759686</v>
+        <v>0.42885734392908381</v>
       </c>
       <c r="Q31" s="32">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="R31" s="32">
         <v>20</v>
@@ -7462,11 +8738,11 @@
         <v>0.15</v>
       </c>
       <c r="T31" s="37">
-        <f>L31-M31</f>
+        <f t="shared" ref="T31:T50" si="0">L31-M31</f>
         <v>0</v>
       </c>
       <c r="U31" s="15">
-        <f>-S31/2</f>
+        <f t="shared" ref="U31:U50" si="1">-S31/2</f>
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="V31" s="15">
@@ -7483,16 +8759,16 @@
         <v>0</v>
       </c>
       <c r="Z31" s="32">
-        <v>10.837957655572676</v>
+        <v>25.594499950786386</v>
       </c>
       <c r="AA31" s="32">
-        <v>21.610107756239305</v>
+        <v>20</v>
       </c>
       <c r="AB31" s="32">
-        <v>0.46087038949154191</v>
+        <v>0.71770125467163237</v>
       </c>
       <c r="AC31" s="32">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AD31" s="32">
         <v>20</v>
@@ -7522,16 +8798,16 @@
         <v>184.21052631578948</v>
       </c>
       <c r="N32" s="32">
-        <v>18.459480340621788</v>
+        <v>18.360824860129437</v>
       </c>
       <c r="O32" s="32">
         <v>21.842105263157894</v>
       </c>
       <c r="P32" s="32">
-        <v>0.63412171340208245</v>
+        <v>0.64210644135893458</v>
       </c>
       <c r="Q32" s="32">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="R32" s="32">
         <v>21.842105263157894</v>
@@ -7540,15 +8816,15 @@
         <v>0.15</v>
       </c>
       <c r="T32" s="37">
-        <f>L32-M32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U32" s="15">
-        <f>-S32/2</f>
+        <f t="shared" si="1"/>
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="V32" s="15">
-        <f t="shared" ref="V32:V50" si="0">-U32</f>
+        <f t="shared" ref="V32:V50" si="2">-U32</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="W32" s="29">
@@ -7561,16 +8837,16 @@
         <v>184.21052631578948</v>
       </c>
       <c r="Z32" s="32">
-        <v>19.615844815484813</v>
+        <v>37.335517408638488</v>
       </c>
       <c r="AA32" s="32">
-        <v>23.469257025065538</v>
+        <v>21.842105263157894</v>
       </c>
       <c r="AB32" s="32">
-        <v>0.65597712673598518</v>
+        <v>0.79889163928136886</v>
       </c>
       <c r="AC32" s="32">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AD32" s="32">
         <v>21.842105263157894</v>
@@ -7591,16 +8867,16 @@
         <v>368.42105263157896</v>
       </c>
       <c r="N33" s="32">
-        <v>30.03958799365309</v>
+        <v>28.878614078221915</v>
       </c>
       <c r="O33" s="32">
         <v>23.684210526315791</v>
       </c>
       <c r="P33" s="32">
-        <v>0.85343214123656708</v>
+        <v>0.73858569419869557</v>
       </c>
       <c r="Q33" s="32">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="R33" s="32">
         <v>23.684210526315791</v>
@@ -7609,15 +8885,15 @@
         <v>0.15</v>
       </c>
       <c r="T33" s="37">
-        <f>L33-M33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U33" s="15">
-        <f>-S33/2</f>
+        <f t="shared" si="1"/>
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="V33" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="W33" s="29">
@@ -7630,16 +8906,16 @@
         <v>368.42105263157896</v>
       </c>
       <c r="Z33" s="32">
-        <v>31.520894563963665</v>
+        <v>49.997908574697021</v>
       </c>
       <c r="AA33" s="32">
-        <v>25.278784827026968</v>
+        <v>23.684210526315791</v>
       </c>
       <c r="AB33" s="32">
-        <v>0.87652181844978638</v>
+        <v>0.814016274161525</v>
       </c>
       <c r="AC33" s="32">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AD33" s="32">
         <v>23.684210526315791</v>
@@ -7660,16 +8936,16 @@
         <v>552.63157894736844</v>
       </c>
       <c r="N34" s="32">
-        <v>44.565868145484444</v>
+        <v>40.769268486240286</v>
       </c>
       <c r="O34" s="32">
         <v>25.526315789473685</v>
       </c>
       <c r="P34" s="32">
-        <v>1</v>
+        <v>0.77932563155357737</v>
       </c>
       <c r="Q34" s="32">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="R34" s="32">
         <v>25.526315789473685</v>
@@ -7678,15 +8954,15 @@
         <v>0.15</v>
       </c>
       <c r="T34" s="37">
-        <f>L34-M34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U34" s="15">
-        <f>-S34/2</f>
+        <f t="shared" si="1"/>
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="W34" s="29">
@@ -7699,16 +8975,16 @@
         <v>552.63157894736844</v>
       </c>
       <c r="Z34" s="32">
-        <v>46.230693380182807</v>
+        <v>62.620013985770377</v>
       </c>
       <c r="AA34" s="32">
-        <v>27.043193630391414</v>
+        <v>25.526315789473685</v>
       </c>
       <c r="AB34" s="32">
-        <v>1</v>
+        <v>0.81406681149058413</v>
       </c>
       <c r="AC34" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD34" s="32">
         <v>25.526315789473685</v>
@@ -7740,16 +9016,16 @@
         <v>736.84210526315792</v>
       </c>
       <c r="N35" s="32">
-        <v>59.749846969339941</v>
+        <v>52.730681864990871</v>
       </c>
       <c r="O35" s="32">
         <v>27.368421052631579</v>
       </c>
       <c r="P35" s="32">
-        <v>1</v>
+        <v>0.80065442786356</v>
       </c>
       <c r="Q35" s="32">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="R35" s="32">
         <v>27.368421052631579</v>
@@ -7758,15 +9034,15 @@
         <v>0.125</v>
       </c>
       <c r="T35" s="37">
-        <f>L35-M35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U35" s="15">
-        <f>-S35/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W35" s="29">
@@ -7779,16 +9055,16 @@
         <v>736.84210526315792</v>
       </c>
       <c r="Z35" s="32">
-        <v>61.395442765654231</v>
+        <v>75.194983556563429</v>
       </c>
       <c r="AA35" s="32">
-        <v>28.826052776323554</v>
+        <v>27.368421052631579</v>
       </c>
       <c r="AB35" s="32">
-        <v>1</v>
+        <v>0.82782569285987972</v>
       </c>
       <c r="AC35" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD35" s="32">
         <v>27.368421052631579</v>
@@ -7827,16 +9103,16 @@
         <v>921.0526315789474</v>
       </c>
       <c r="N36" s="32">
-        <v>74.798155955830978</v>
+        <v>65.169759432482138</v>
       </c>
       <c r="O36" s="32">
         <v>29.208505263157896</v>
       </c>
       <c r="P36" s="32">
-        <v>1</v>
+        <v>0.83198215923881358</v>
       </c>
       <c r="Q36" s="32">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="R36" s="32">
         <v>29.208505263157896</v>
@@ -7845,15 +9121,15 @@
         <v>0.125</v>
       </c>
       <c r="T36" s="37">
-        <f>L36-M36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U36" s="15">
-        <f>-S36/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W36" s="29">
@@ -7866,16 +9142,16 @@
         <v>921.0526315789474</v>
       </c>
       <c r="Z36" s="32">
-        <v>76.417860882323538</v>
+        <v>88.07757893936008</v>
       </c>
       <c r="AA36" s="32">
-        <v>30.628419762228432</v>
+        <v>29.208505263157896</v>
       </c>
       <c r="AB36" s="32">
-        <v>1</v>
+        <v>0.85660980877119131</v>
       </c>
       <c r="AC36" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD36" s="32">
         <v>29.208505263157896</v>
@@ -7914,16 +9190,16 @@
         <v>1100.7810526315789</v>
       </c>
       <c r="N37" s="32">
-        <v>89.436377234594616</v>
+        <v>77.446424962849008</v>
       </c>
       <c r="O37" s="32">
         <v>31.007473684210527</v>
       </c>
       <c r="P37" s="32">
-        <v>1</v>
+        <v>0.82909894206140089</v>
       </c>
       <c r="Q37" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R37" s="32">
         <v>31.007473684210527</v>
@@ -7932,15 +9208,15 @@
         <v>0.125</v>
       </c>
       <c r="T37" s="37">
-        <f>L37-M37</f>
+        <f t="shared" si="0"/>
         <v>4.4821052631580187</v>
       </c>
       <c r="U37" s="15">
-        <f>-S37/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W37" s="29">
@@ -7953,16 +9229,16 @@
         <v>1100.7810526315789</v>
       </c>
       <c r="Z37" s="32">
-        <v>91.03101470599411</v>
+        <v>100.99209928029657</v>
       </c>
       <c r="AA37" s="32">
-        <v>32.421508074475369</v>
+        <v>31.007473684210527</v>
       </c>
       <c r="AB37" s="32">
-        <v>1</v>
+        <v>0.87320931947944769</v>
       </c>
       <c r="AC37" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD37" s="32">
         <v>31.007473684210527</v>
@@ -8001,16 +9277,16 @@
         <v>1273.856842105263</v>
       </c>
       <c r="N38" s="32">
-        <v>103.36881985821364</v>
+        <v>89.543956622310475</v>
       </c>
       <c r="O38" s="32">
         <v>32.737305263157893</v>
       </c>
       <c r="P38" s="32">
-        <v>1</v>
+        <v>0.85516381766311023</v>
       </c>
       <c r="Q38" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R38" s="32">
         <v>32.737305263157893</v>
@@ -8019,15 +9295,15 @@
         <v>0.125</v>
       </c>
       <c r="T38" s="37">
-        <f>L38-M38</f>
+        <f t="shared" si="0"/>
         <v>15.616842105263231</v>
       </c>
       <c r="U38" s="15">
-        <f>-S38/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V38" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W38" s="29">
@@ -8040,16 +9316,16 @@
         <v>1273.856842105263</v>
       </c>
       <c r="Z38" s="32">
-        <v>104.94898924783087</v>
+        <v>113.55694517542557</v>
       </c>
       <c r="AA38" s="32">
-        <v>34.364822782519916</v>
+        <v>32.737305263157893</v>
       </c>
       <c r="AB38" s="32">
-        <v>1</v>
+        <v>0.88229459308444425</v>
       </c>
       <c r="AC38" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD38" s="32">
         <v>32.737305263157893</v>
@@ -8088,16 +9364,16 @@
         <v>1440.4147368421054</v>
       </c>
       <c r="N39" s="32">
-        <v>116.77173124095837</v>
+        <v>101.38987239040408</v>
       </c>
       <c r="O39" s="32">
         <v>34.400989473684206</v>
       </c>
       <c r="P39" s="32">
-        <v>1</v>
+        <v>0.87005206817485059</v>
       </c>
       <c r="Q39" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R39" s="32">
         <v>34.400989473684206</v>
@@ -8106,15 +9382,15 @@
         <v>0.125</v>
       </c>
       <c r="T39" s="37">
-        <f>L39-M39</f>
+        <f t="shared" si="0"/>
         <v>33.269473684210425</v>
       </c>
       <c r="U39" s="15">
-        <f>-S39/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W39" s="29">
@@ -8127,16 +9403,16 @@
         <v>1440.4147368421054</v>
       </c>
       <c r="Z39" s="32">
-        <v>118.33421378086312</v>
+        <v>125.75787546393317</v>
       </c>
       <c r="AA39" s="32">
-        <v>37.623668289542707</v>
+        <v>34.400989473684206</v>
       </c>
       <c r="AB39" s="32">
-        <v>1</v>
+        <v>0.88826715976127313</v>
       </c>
       <c r="AC39" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD39" s="32">
         <v>34.400989473684206</v>
@@ -8175,16 +9451,16 @@
         <v>1600.1936842105265</v>
       </c>
       <c r="N40" s="32">
-        <v>129.62512369521343</v>
+        <v>112.87559058574314</v>
       </c>
       <c r="O40" s="32">
         <v>40.485178947368425</v>
       </c>
       <c r="P40" s="32">
-        <v>1</v>
+        <v>0.87461006022533139</v>
       </c>
       <c r="Q40" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R40" s="32">
         <v>40.485178947368425</v>
@@ -8193,15 +9469,15 @@
         <v>0.125</v>
       </c>
       <c r="T40" s="37">
-        <f>L40-M40</f>
+        <f t="shared" si="0"/>
         <v>57.701052631578932</v>
       </c>
       <c r="U40" s="15">
-        <f>-S40/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W40" s="29">
@@ -8214,16 +9490,16 @@
         <v>1600.1936842105265</v>
       </c>
       <c r="Z40" s="32">
-        <v>131.15217379432792</v>
+        <v>137.51293635679394</v>
       </c>
       <c r="AA40" s="32">
-        <v>45.1677274441926</v>
+        <v>40.485178947368425</v>
       </c>
       <c r="AB40" s="32">
-        <v>1</v>
+        <v>0.88870166911942339</v>
       </c>
       <c r="AC40" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD40" s="32">
         <v>40.485178947368425</v>
@@ -8254,16 +9530,16 @@
         <v>1752.9621052631578</v>
       </c>
       <c r="N41" s="32">
-        <v>141.8902102126406</v>
+        <v>123.86853283720023</v>
       </c>
       <c r="O41" s="32">
         <v>48.894389473684214</v>
       </c>
       <c r="P41" s="32">
-        <v>1</v>
+        <v>0.87519934077150141</v>
       </c>
       <c r="Q41" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R41" s="32">
         <v>48.894389473684214</v>
@@ -8272,15 +9548,15 @@
         <v>0.125</v>
       </c>
       <c r="T41" s="37">
-        <f>L41-M41</f>
+        <f t="shared" si="0"/>
         <v>89.143157894736987</v>
       </c>
       <c r="U41" s="15">
-        <f>-S41/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W41" s="29">
@@ -8293,16 +9569,16 @@
         <v>1752.9621052631578</v>
       </c>
       <c r="Z41" s="32">
-        <v>143.38197024916602</v>
+        <v>148.72211579166802</v>
       </c>
       <c r="AA41" s="32">
-        <v>53.314478987057193</v>
+        <v>48.894389473684214</v>
       </c>
       <c r="AB41" s="32">
-        <v>1</v>
+        <v>0.88662763147761603</v>
       </c>
       <c r="AC41" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD41" s="32">
         <v>48.894389473684214</v>
@@ -8333,16 +9609,16 @@
         <v>1898.9936842105262</v>
       </c>
       <c r="N42" s="32">
-        <v>153.5680465100362</v>
+        <v>134.3452854364873</v>
       </c>
       <c r="O42" s="32">
         <v>56.933073684210527</v>
       </c>
       <c r="P42" s="32">
-        <v>1</v>
+        <v>0.87495978944462094</v>
       </c>
       <c r="Q42" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R42" s="32">
         <v>56.933073684210527</v>
@@ -8351,15 +9627,15 @@
         <v>0.125</v>
       </c>
       <c r="T42" s="37">
-        <f>L42-M42</f>
+        <f t="shared" si="0"/>
         <v>127.32210526315794</v>
       </c>
       <c r="U42" s="15">
-        <f>-S42/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V42" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W42" s="29">
@@ -8372,16 +9648,16 @@
         <v>1898.9936842105262</v>
       </c>
       <c r="Z42" s="32">
-        <v>155.02849466516992</v>
+        <v>159.37769700962565</v>
       </c>
       <c r="AA42" s="32">
-        <v>61.106100132016742</v>
+        <v>56.933073684210527</v>
       </c>
       <c r="AB42" s="32">
-        <v>1</v>
+        <v>0.88442462723525939</v>
       </c>
       <c r="AC42" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD42" s="32">
         <v>56.933073684210527</v>
@@ -8412,16 +9688,16 @@
         <v>2038.2884210526317</v>
       </c>
       <c r="N43" s="32">
-        <v>164.66549637967603</v>
+        <v>144.30342965568909</v>
       </c>
       <c r="O43" s="32">
         <v>64.601231578947377</v>
       </c>
       <c r="P43" s="32">
-        <v>1</v>
+        <v>0.87421317831191658</v>
       </c>
       <c r="Q43" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R43" s="32">
         <v>64.601231578947377</v>
@@ -8430,15 +9706,15 @@
         <v>0.125</v>
       </c>
       <c r="T43" s="37">
-        <f>L43-M43</f>
+        <f t="shared" si="0"/>
         <v>172.23789473684201</v>
       </c>
       <c r="U43" s="15">
-        <f>-S43/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V43" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W43" s="29">
@@ -8451,16 +9727,16 @@
         <v>2038.2884210526317</v>
       </c>
       <c r="Z43" s="32">
-        <v>166.09815261586797</v>
+        <v>169.48651456755701</v>
       </c>
       <c r="AA43" s="32">
-        <v>68.536156232475449</v>
+        <v>64.601231578947377</v>
       </c>
       <c r="AB43" s="32">
-        <v>1</v>
+        <v>0.88218441085555988</v>
       </c>
       <c r="AC43" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD43" s="32">
         <v>64.601231578947377</v>
@@ -8491,16 +9767,16 @@
         <v>2170.8463157894739</v>
       </c>
       <c r="N44" s="32">
-        <v>175.18006007395761</v>
+        <v>153.73583667787636</v>
       </c>
       <c r="O44" s="32">
         <v>71.893073684210535</v>
       </c>
       <c r="P44" s="32">
-        <v>1</v>
+        <v>0.87315103564456653</v>
       </c>
       <c r="Q44" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R44" s="32">
         <v>71.893073684210535</v>
@@ -8509,15 +9785,15 @@
         <v>0.125</v>
       </c>
       <c r="T44" s="37">
-        <f>L44-M44</f>
+        <f t="shared" si="0"/>
         <v>223.89052631578943</v>
       </c>
       <c r="U44" s="15">
-        <f>-S44/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V44" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W44" s="29">
@@ -8530,16 +9806,16 @@
         <v>2170.8463157894739</v>
       </c>
       <c r="Z44" s="32">
-        <v>176.58819824989865</v>
+        <v>179.04745953064864</v>
       </c>
       <c r="AA44" s="32">
-        <v>75.570415827953781</v>
+        <v>71.893073684210535</v>
       </c>
       <c r="AB44" s="32">
-        <v>1</v>
+        <v>0.87995937830002546</v>
       </c>
       <c r="AC44" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD44" s="32">
         <v>71.893073684210535</v>
@@ -8570,16 +9846,16 @@
         <v>2296.6673684210523</v>
       </c>
       <c r="N45" s="32">
-        <v>185.10919833852711</v>
+        <v>162.63765403143907</v>
       </c>
       <c r="O45" s="32">
         <v>78.802810526315781</v>
       </c>
       <c r="P45" s="32">
-        <v>1</v>
+        <v>0.87190769037562321</v>
       </c>
       <c r="Q45" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R45" s="32">
         <v>78.802810526315781</v>
@@ -8588,15 +9864,15 @@
         <v>0.125</v>
       </c>
       <c r="T45" s="37">
-        <f>L45-M45</f>
+        <f t="shared" si="0"/>
         <v>282.2800000000002</v>
       </c>
       <c r="U45" s="15">
-        <f>-S45/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V45" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W45" s="29">
@@ -8609,16 +9885,16 @@
         <v>2296.6673684210523</v>
       </c>
       <c r="Z45" s="32">
-        <v>186.49647104387196</v>
+        <v>188.06003556423988</v>
       </c>
       <c r="AA45" s="32">
-        <v>81.991623615173907</v>
+        <v>78.802810526315781</v>
       </c>
       <c r="AB45" s="32">
-        <v>1</v>
+        <v>0.87778877979514713</v>
       </c>
       <c r="AC45" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD45" s="32">
         <v>78.802810526315781</v>
@@ -8649,16 +9925,16 @@
         <v>2414.7609022556394</v>
       </c>
       <c r="N46" s="32">
-        <v>194.29155183755142</v>
+        <v>170.86385453225819</v>
       </c>
       <c r="O46" s="32">
         <v>84.906123308270679</v>
       </c>
       <c r="P46" s="32">
-        <v>1</v>
+        <v>0.87076837320350864</v>
       </c>
       <c r="Q46" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R46" s="32">
         <v>84.906123308270679</v>
@@ -8667,15 +9943,15 @@
         <v>0.125</v>
       </c>
       <c r="T46" s="37">
-        <f>L46-M46</f>
+        <f t="shared" si="0"/>
         <v>348.39699248120269</v>
       </c>
       <c r="U46" s="15">
-        <f>-S46/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V46" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W46" s="29">
@@ -8688,16 +9964,16 @@
         <v>2414.7609022556394</v>
       </c>
       <c r="Z46" s="32">
-        <v>195.667092559998</v>
+        <v>196.38243464080321</v>
       </c>
       <c r="AA46" s="32">
-        <v>86.378126341843497</v>
+        <v>84.906123308270679</v>
       </c>
       <c r="AB46" s="32">
-        <v>1</v>
+        <v>0.87588883691172792</v>
       </c>
       <c r="AC46" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD46" s="32">
         <v>84.906123308270679</v>
@@ -8728,16 +10004,16 @@
         <v>2451.8421052631579</v>
       </c>
       <c r="N47" s="32">
-        <v>197.83219293156648</v>
+        <v>174.0347046241402</v>
       </c>
       <c r="O47" s="32">
         <v>87.351315789473688</v>
       </c>
       <c r="P47" s="32">
-        <v>1</v>
+        <v>0.87024653720834944</v>
       </c>
       <c r="Q47" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R47" s="32">
         <v>87.351315789473688</v>
@@ -8746,15 +10022,15 @@
         <v>0.125</v>
       </c>
       <c r="T47" s="37">
-        <f>L47-M47</f>
+        <f t="shared" si="0"/>
         <v>495.52631578947376</v>
       </c>
       <c r="U47" s="15">
-        <f>-S47/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V47" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W47" s="29">
@@ -8767,16 +10043,16 @@
         <v>2451.8421052631579</v>
       </c>
       <c r="Z47" s="32">
-        <v>199.20571828456147</v>
+        <v>199.58820686470293</v>
       </c>
       <c r="AA47" s="32">
-        <v>87.639268267569022</v>
+        <v>87.351315789473688</v>
       </c>
       <c r="AB47" s="32">
-        <v>1</v>
+        <v>0.87510083119715498</v>
       </c>
       <c r="AC47" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD47" s="32">
         <v>87.351315789473688</v>
@@ -8807,16 +10083,16 @@
         <v>2467.8947368421054</v>
       </c>
       <c r="N48" s="32">
-        <v>199.08974646498407</v>
+        <v>175.16064031385659</v>
       </c>
       <c r="O48" s="32">
         <v>88.234210526315806</v>
       </c>
       <c r="P48" s="32">
-        <v>1</v>
+        <v>0.87004951674225606</v>
       </c>
       <c r="Q48" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R48" s="32">
         <v>88.234210526315806</v>
@@ -8825,15 +10101,15 @@
         <v>0.125</v>
       </c>
       <c r="T48" s="37">
-        <f>L48-M48</f>
+        <f t="shared" si="0"/>
         <v>663.68421052631584</v>
       </c>
       <c r="U48" s="15">
-        <f>-S48/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V48" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W48" s="29">
@@ -8846,16 +10122,16 @@
         <v>2467.8947368421054</v>
       </c>
       <c r="Z48" s="32">
-        <v>200.46352950271441</v>
+        <v>200.7262311096982</v>
       </c>
       <c r="AA48" s="32">
-        <v>87.380938631114802</v>
+        <v>88.234210526315806</v>
       </c>
       <c r="AB48" s="32">
-        <v>1</v>
+        <v>0.87480782179622385</v>
       </c>
       <c r="AC48" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD48" s="32">
         <v>88.234210526315806</v>
@@ -8886,16 +10162,16 @@
         <v>2483.9473684210529</v>
       </c>
       <c r="N49" s="32">
-        <v>200.34675140482437</v>
+        <v>176.28593679699944</v>
       </c>
       <c r="O49" s="32">
         <v>89.11710526315791</v>
       </c>
       <c r="P49" s="32">
-        <v>1</v>
+        <v>0.86985041431189991</v>
       </c>
       <c r="Q49" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R49" s="32">
         <v>89.11710526315791</v>
@@ -8904,15 +10180,15 @@
         <v>0.125</v>
       </c>
       <c r="T49" s="37">
-        <f>L49-M49</f>
+        <f t="shared" si="0"/>
         <v>831.84210526315792</v>
       </c>
       <c r="U49" s="15">
-        <f>-S49/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V49" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W49" s="29">
@@ -8925,16 +10201,16 @@
         <v>2483.9473684210529</v>
       </c>
       <c r="Z49" s="32">
-        <v>201.72351408931311</v>
+        <v>201.86349521589221</v>
       </c>
       <c r="AA49" s="32">
-        <v>80.388373769177903</v>
+        <v>89.11710526315791</v>
       </c>
       <c r="AB49" s="32">
-        <v>1</v>
+        <v>0.87451782718647175</v>
       </c>
       <c r="AC49" s="32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD49" s="32">
         <v>89.11710526315791</v>
@@ -8965,16 +10241,16 @@
         <v>2500</v>
       </c>
       <c r="N50" s="34">
-        <v>201.60320791861258</v>
+        <v>177.41058592041975</v>
       </c>
       <c r="O50" s="34">
         <v>90</v>
       </c>
       <c r="P50" s="34">
-        <v>1</v>
+        <v>0.86964430656197678</v>
       </c>
       <c r="Q50" s="34">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="R50" s="34">
         <v>90</v>
@@ -8983,15 +10259,15 @@
         <v>0.125</v>
       </c>
       <c r="T50" s="37">
-        <f>L50-M50</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="U50" s="15">
-        <f>-S50/2</f>
+        <f t="shared" si="1"/>
         <v>-6.25E-2</v>
       </c>
       <c r="V50" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="W50" s="33">
@@ -9007,13 +10283,13 @@
         <v>203</v>
       </c>
       <c r="AA50" s="34">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AB50" s="34">
-        <v>1</v>
+        <v>0.874227249876811</v>
       </c>
       <c r="AC50" s="34">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AD50" s="34">
         <v>90</v>
@@ -9133,6 +10409,1349 @@
       <c r="C60" s="17"/>
       <c r="G60" s="10"/>
     </row>
+    <row r="78" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C80" s="39" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,1)</f>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:True;</v>
+      </c>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C83" cm="1">
+        <f t="array" ref="C83:K105">[1]!MF_p_pipeline_atma(qliq_,fw_,inclinometry,Pann,T0,1,0,PVT_gas,H38:I57,hcor,E38:F40,tempm,,,,Qgas_free)</f>
+        <v>31.870328548727464</v>
+      </c>
+      <c r="D83">
+        <v>90</v>
+      </c>
+      <c r="E83">
+        <v>25</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="G83">
+        <v>31.870328548727464</v>
+      </c>
+      <c r="H83">
+        <v>90</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>6125</v>
+      </c>
+      <c r="O83" cm="1">
+        <f t="array" ref="O83:W105">[1]!MF_p_pipeline_atma(0,fw_,inclinometry,Pwf,T1_,0,0,PVTstr_,H38:I57,hcor,E38:F40,tempm,,,,Qgas_free)</f>
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>20</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>20</v>
+      </c>
+      <c r="S83">
+        <v>150</v>
+      </c>
+      <c r="T83">
+        <v>90</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C84" t="str">
+        <v>p_result_atma</v>
+      </c>
+      <c r="D84" t="str">
+        <v>t_result_C</v>
+      </c>
+      <c r="E84" t="str">
+        <v>p_1, atma</v>
+      </c>
+      <c r="F84" t="str">
+        <v>t_1, C</v>
+      </c>
+      <c r="G84" t="str">
+        <v>p_2, atma</v>
+      </c>
+      <c r="H84" t="str">
+        <v>t_2, C</v>
+      </c>
+      <c r="I84" t="str">
+        <v>c_calibr_grav</v>
+      </c>
+      <c r="J84" t="str">
+        <v>c_calibr_fric</v>
+      </c>
+      <c r="K84" t="str">
+        <v>q_gas_sm3day</v>
+      </c>
+      <c r="O84" t="str">
+        <v>p_result_atma</v>
+      </c>
+      <c r="P84" t="str">
+        <v>t_result_C</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>p_1, atma</v>
+      </c>
+      <c r="R84" t="str">
+        <v>t_1, C</v>
+      </c>
+      <c r="S84" t="str">
+        <v>p_2, atma</v>
+      </c>
+      <c r="T84" t="str">
+        <v>t_2, C</v>
+      </c>
+      <c r="U84" t="str">
+        <v>c_calibr_grav</v>
+      </c>
+      <c r="V84" t="str">
+        <v>c_calibr_fric</v>
+      </c>
+      <c r="W84" t="str">
+        <v>q_gas_sm3day</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C85" t="str">
+        <v>num</v>
+      </c>
+      <c r="D85" t="str">
+        <v>h,m</v>
+      </c>
+      <c r="E85" t="str">
+        <v>hvert,m</v>
+      </c>
+      <c r="F85" t="str">
+        <v>p,atma</v>
+      </c>
+      <c r="G85" t="str">
+        <v>t,C</v>
+      </c>
+      <c r="H85" t="str">
+        <v>Hl</v>
+      </c>
+      <c r="I85" t="str">
+        <v>fpat</v>
+      </c>
+      <c r="J85" t="str">
+        <v>t_amb, C</v>
+      </c>
+      <c r="K85" t="str">
+        <v>diam, mm</v>
+      </c>
+      <c r="O85" t="str">
+        <v>num</v>
+      </c>
+      <c r="P85" t="str">
+        <v>h,m</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>hvert,m</v>
+      </c>
+      <c r="R85" t="str">
+        <v>p,atma</v>
+      </c>
+      <c r="S85" t="str">
+        <v>t,C</v>
+      </c>
+      <c r="T85" t="str">
+        <v>Hl</v>
+      </c>
+      <c r="U85" t="str">
+        <v>fpat</v>
+      </c>
+      <c r="V85" t="str">
+        <v>t_amb, C</v>
+      </c>
+      <c r="W85" t="str">
+        <v>diam, mm</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>25</v>
+      </c>
+      <c r="G86">
+        <v>20</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>101</v>
+      </c>
+      <c r="J86">
+        <v>20</v>
+      </c>
+      <c r="K86">
+        <v>0.15</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>20</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>20</v>
+      </c>
+      <c r="W86">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>184.21052631578948</v>
+      </c>
+      <c r="E87">
+        <v>184.21052631578948</v>
+      </c>
+      <c r="F87">
+        <v>25.48405669482004</v>
+      </c>
+      <c r="G87">
+        <v>21.842105263157894</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>101</v>
+      </c>
+      <c r="J87">
+        <v>21.842105263157894</v>
+      </c>
+      <c r="K87">
+        <v>0.15</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>184.21052631578948</v>
+      </c>
+      <c r="Q87">
+        <v>184.21052631578948</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>21.842105263157894</v>
+      </c>
+      <c r="T87">
+        <v>0.23844571002523168</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>21.842105263157894</v>
+      </c>
+      <c r="W87">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>368.42105263157896</v>
+      </c>
+      <c r="E88">
+        <v>368.42105263157896</v>
+      </c>
+      <c r="F88">
+        <v>25.974240810364659</v>
+      </c>
+      <c r="G88">
+        <v>23.684210526315791</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>101</v>
+      </c>
+      <c r="J88">
+        <v>23.684210526315791</v>
+      </c>
+      <c r="K88">
+        <v>0.15</v>
+      </c>
+      <c r="O88">
+        <v>3</v>
+      </c>
+      <c r="P88">
+        <v>368.42105263157896</v>
+      </c>
+      <c r="Q88">
+        <v>368.42105263157896</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>23.684210526315791</v>
+      </c>
+      <c r="T88">
+        <v>0.47689142005046337</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>23.684210526315791</v>
+      </c>
+      <c r="W88">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>552.63157894736844</v>
+      </c>
+      <c r="E89">
+        <v>552.63157894736844</v>
+      </c>
+      <c r="F89">
+        <v>26.470589009981239</v>
+      </c>
+      <c r="G89">
+        <v>25.526315789473685</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>101</v>
+      </c>
+      <c r="J89">
+        <v>25.526315789473685</v>
+      </c>
+      <c r="K89">
+        <v>0.15</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>552.63157894736844</v>
+      </c>
+      <c r="Q89">
+        <v>552.63157894736844</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>25.526315789473685</v>
+      </c>
+      <c r="T89">
+        <v>0.71533713007569499</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>25.526315789473685</v>
+      </c>
+      <c r="W89">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>736.84210526315792</v>
+      </c>
+      <c r="E90">
+        <v>736.84210526315792</v>
+      </c>
+      <c r="F90">
+        <v>26.973137826272819</v>
+      </c>
+      <c r="G90">
+        <v>27.368421052631579</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>101</v>
+      </c>
+      <c r="J90">
+        <v>27.368421052631579</v>
+      </c>
+      <c r="K90">
+        <v>0.125</v>
+      </c>
+      <c r="O90">
+        <v>5</v>
+      </c>
+      <c r="P90">
+        <v>736.84210526315792</v>
+      </c>
+      <c r="Q90">
+        <v>736.84210526315792</v>
+      </c>
+      <c r="R90">
+        <v>8.7564176576288375</v>
+      </c>
+      <c r="S90">
+        <v>27.368421052631579</v>
+      </c>
+      <c r="T90">
+        <v>0.92533200729377796</v>
+      </c>
+      <c r="U90">
+        <v>102</v>
+      </c>
+      <c r="V90">
+        <v>27.368421052631579</v>
+      </c>
+      <c r="W90">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>921.0526315789474</v>
+      </c>
+      <c r="E91">
+        <v>921.0526315789474</v>
+      </c>
+      <c r="F91">
+        <v>27.481872374464743</v>
+      </c>
+      <c r="G91">
+        <v>29.208505263157896</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>101</v>
+      </c>
+      <c r="J91">
+        <v>29.208505263157896</v>
+      </c>
+      <c r="K91">
+        <v>0.125</v>
+      </c>
+      <c r="O91">
+        <v>6</v>
+      </c>
+      <c r="P91">
+        <v>921.0526315789474</v>
+      </c>
+      <c r="Q91">
+        <v>921.0526315789474</v>
+      </c>
+      <c r="R91">
+        <v>23.525707698194761</v>
+      </c>
+      <c r="S91">
+        <v>29.208505263157896</v>
+      </c>
+      <c r="T91">
+        <v>0.975085541618959</v>
+      </c>
+      <c r="U91">
+        <v>102</v>
+      </c>
+      <c r="V91">
+        <v>29.208505263157896</v>
+      </c>
+      <c r="W91">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>1105.2631578947369</v>
+      </c>
+      <c r="E92">
+        <v>1100.7810526315789</v>
+      </c>
+      <c r="F92">
+        <v>27.987770885796248</v>
+      </c>
+      <c r="G92">
+        <v>31.007473684210527</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>101</v>
+      </c>
+      <c r="J92">
+        <v>31.007473684210527</v>
+      </c>
+      <c r="K92">
+        <v>0.125</v>
+      </c>
+      <c r="O92">
+        <v>7</v>
+      </c>
+      <c r="P92">
+        <v>1105.2631578947369</v>
+      </c>
+      <c r="Q92">
+        <v>1100.7810526315789</v>
+      </c>
+      <c r="R92">
+        <v>38.279775953233447</v>
+      </c>
+      <c r="S92">
+        <v>31.007473684210527</v>
+      </c>
+      <c r="T92">
+        <v>0.98504384192985917</v>
+      </c>
+      <c r="U92">
+        <v>102</v>
+      </c>
+      <c r="V92">
+        <v>31.007473684210527</v>
+      </c>
+      <c r="W92">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>1289.4736842105262</v>
+      </c>
+      <c r="E93">
+        <v>1273.856842105263</v>
+      </c>
+      <c r="F93">
+        <v>28.478602768945521</v>
+      </c>
+      <c r="G93">
+        <v>32.737305263157893</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>101</v>
+      </c>
+      <c r="J93">
+        <v>32.737305263157893</v>
+      </c>
+      <c r="K93">
+        <v>0.125</v>
+      </c>
+      <c r="O93">
+        <v>8</v>
+      </c>
+      <c r="P93">
+        <v>1289.4736842105262</v>
+      </c>
+      <c r="Q93">
+        <v>1273.856842105263</v>
+      </c>
+      <c r="R93">
+        <v>52.412213769426231</v>
+      </c>
+      <c r="S93">
+        <v>32.737305263157893</v>
+      </c>
+      <c r="T93">
+        <v>0.9893069758273606</v>
+      </c>
+      <c r="U93">
+        <v>102</v>
+      </c>
+      <c r="V93">
+        <v>32.737305263157893</v>
+      </c>
+      <c r="W93">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>1473.6842105263158</v>
+      </c>
+      <c r="E94">
+        <v>1440.4147368421054</v>
+      </c>
+      <c r="F94">
+        <v>28.955929592187996</v>
+      </c>
+      <c r="G94">
+        <v>34.400989473684206</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>101</v>
+      </c>
+      <c r="J94">
+        <v>34.400989473684206</v>
+      </c>
+      <c r="K94">
+        <v>0.125</v>
+      </c>
+      <c r="O94">
+        <v>9</v>
+      </c>
+      <c r="P94">
+        <v>1473.6842105263158</v>
+      </c>
+      <c r="Q94">
+        <v>1440.4147368421054</v>
+      </c>
+      <c r="R94">
+        <v>65.937722742488134</v>
+      </c>
+      <c r="S94">
+        <v>34.400989473684206</v>
+      </c>
+      <c r="T94">
+        <v>0.99610576753538649</v>
+      </c>
+      <c r="U94">
+        <v>102</v>
+      </c>
+      <c r="V94">
+        <v>34.400989473684206</v>
+      </c>
+      <c r="W94">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>1657.8947368421054</v>
+      </c>
+      <c r="E95">
+        <v>1600.1936842105265</v>
+      </c>
+      <c r="F95">
+        <v>29.415432148054048</v>
+      </c>
+      <c r="G95">
+        <v>40.485178947368425</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>101</v>
+      </c>
+      <c r="J95">
+        <v>40.485178947368425</v>
+      </c>
+      <c r="K95">
+        <v>0.125</v>
+      </c>
+      <c r="O95">
+        <v>10</v>
+      </c>
+      <c r="P95">
+        <v>1657.8947368421054</v>
+      </c>
+      <c r="Q95">
+        <v>1600.1936842105265</v>
+      </c>
+      <c r="R95">
+        <v>78.819421524261003</v>
+      </c>
+      <c r="S95">
+        <v>40.485178947368425</v>
+      </c>
+      <c r="T95">
+        <v>0.99278679581675866</v>
+      </c>
+      <c r="U95">
+        <v>102</v>
+      </c>
+      <c r="V95">
+        <v>40.485178947368425</v>
+      </c>
+      <c r="W95">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>1842.1052631578948</v>
+      </c>
+      <c r="E96">
+        <v>1752.9621052631578</v>
+      </c>
+      <c r="F96">
+        <v>29.847997503772842</v>
+      </c>
+      <c r="G96">
+        <v>48.894389473684214</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>101</v>
+      </c>
+      <c r="J96">
+        <v>48.894389473684214</v>
+      </c>
+      <c r="K96">
+        <v>0.125</v>
+      </c>
+      <c r="O96">
+        <v>11</v>
+      </c>
+      <c r="P96">
+        <v>1842.1052631578948</v>
+      </c>
+      <c r="Q96">
+        <v>1752.9621052631578</v>
+      </c>
+      <c r="R96">
+        <v>91.028361457000941</v>
+      </c>
+      <c r="S96">
+        <v>48.894389473684214</v>
+      </c>
+      <c r="T96">
+        <v>0.99336339738161816</v>
+      </c>
+      <c r="U96">
+        <v>102</v>
+      </c>
+      <c r="V96">
+        <v>48.894389473684214</v>
+      </c>
+      <c r="W96">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>2026.3157894736842</v>
+      </c>
+      <c r="E97">
+        <v>1898.9936842105262</v>
+      </c>
+      <c r="F97">
+        <v>30.253871670139414</v>
+      </c>
+      <c r="G97">
+        <v>56.933073684210527</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>101</v>
+      </c>
+      <c r="J97">
+        <v>56.933073684210527</v>
+      </c>
+      <c r="K97">
+        <v>0.125</v>
+      </c>
+      <c r="O97">
+        <v>12</v>
+      </c>
+      <c r="P97">
+        <v>2026.3157894736842</v>
+      </c>
+      <c r="Q97">
+        <v>1898.9936842105262</v>
+      </c>
+      <c r="R97">
+        <v>102.5797438892626</v>
+      </c>
+      <c r="S97">
+        <v>56.933073684210527</v>
+      </c>
+      <c r="T97">
+        <v>0.99374184113482156</v>
+      </c>
+      <c r="U97">
+        <v>102</v>
+      </c>
+      <c r="V97">
+        <v>56.933073684210527</v>
+      </c>
+      <c r="W97">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>2210.5263157894738</v>
+      </c>
+      <c r="E98">
+        <v>2038.2884210526317</v>
+      </c>
+      <c r="F98">
+        <v>30.634558008213975</v>
+      </c>
+      <c r="G98">
+        <v>64.601231578947377</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>101</v>
+      </c>
+      <c r="J98">
+        <v>64.601231578947377</v>
+      </c>
+      <c r="K98">
+        <v>0.125</v>
+      </c>
+      <c r="O98">
+        <v>13</v>
+      </c>
+      <c r="P98">
+        <v>2210.5263157894738</v>
+      </c>
+      <c r="Q98">
+        <v>2038.2884210526317</v>
+      </c>
+      <c r="R98">
+        <v>113.52641729133944</v>
+      </c>
+      <c r="S98">
+        <v>64.601231578947377</v>
+      </c>
+      <c r="T98">
+        <v>0.99394433215963929</v>
+      </c>
+      <c r="U98">
+        <v>102</v>
+      </c>
+      <c r="V98">
+        <v>64.601231578947377</v>
+      </c>
+      <c r="W98">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>2394.7368421052633</v>
+      </c>
+      <c r="E99">
+        <v>2170.8463157894739</v>
+      </c>
+      <c r="F99">
+        <v>30.990979383761346</v>
+      </c>
+      <c r="G99">
+        <v>71.893073684210535</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>101</v>
+      </c>
+      <c r="J99">
+        <v>71.893073684210535</v>
+      </c>
+      <c r="K99">
+        <v>0.125</v>
+      </c>
+      <c r="O99">
+        <v>14</v>
+      </c>
+      <c r="P99">
+        <v>2394.7368421052633</v>
+      </c>
+      <c r="Q99">
+        <v>2170.8463157894739</v>
+      </c>
+      <c r="R99">
+        <v>123.90394793048451</v>
+      </c>
+      <c r="S99">
+        <v>71.893073684210535</v>
+      </c>
+      <c r="T99">
+        <v>0.99405197773309351</v>
+      </c>
+      <c r="U99">
+        <v>102</v>
+      </c>
+      <c r="V99">
+        <v>71.893073684210535</v>
+      </c>
+      <c r="W99">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>15</v>
+      </c>
+      <c r="D100">
+        <v>2578.9473684210525</v>
+      </c>
+      <c r="E100">
+        <v>2296.6673684210523</v>
+      </c>
+      <c r="F100">
+        <v>31.323941325283361</v>
+      </c>
+      <c r="G100">
+        <v>78.802810526315781</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>101</v>
+      </c>
+      <c r="J100">
+        <v>78.802810526315781</v>
+      </c>
+      <c r="K100">
+        <v>0.125</v>
+      </c>
+      <c r="O100">
+        <v>15</v>
+      </c>
+      <c r="P100">
+        <v>2578.9473684210525</v>
+      </c>
+      <c r="Q100">
+        <v>2296.6673684210523</v>
+      </c>
+      <c r="R100">
+        <v>133.70767650649358</v>
+      </c>
+      <c r="S100">
+        <v>78.802810526315781</v>
+      </c>
+      <c r="T100">
+        <v>0.99409749592080443</v>
+      </c>
+      <c r="U100">
+        <v>102</v>
+      </c>
+      <c r="V100">
+        <v>78.802810526315781</v>
+      </c>
+      <c r="W100">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>16</v>
+      </c>
+      <c r="D101">
+        <v>2763.1578947368421</v>
+      </c>
+      <c r="E101">
+        <v>2414.7609022556394</v>
+      </c>
+      <c r="F101">
+        <v>31.62904209277977</v>
+      </c>
+      <c r="G101">
+        <v>84.906123308270679</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>101</v>
+      </c>
+      <c r="J101">
+        <v>84.906123308270679</v>
+      </c>
+      <c r="K101">
+        <v>0.125</v>
+      </c>
+      <c r="O101">
+        <v>16</v>
+      </c>
+      <c r="P101">
+        <v>2763.1578947368421</v>
+      </c>
+      <c r="Q101">
+        <v>2414.7609022556394</v>
+      </c>
+      <c r="R101">
+        <v>142.77812147916777</v>
+      </c>
+      <c r="S101">
+        <v>84.906123308270679</v>
+      </c>
+      <c r="T101">
+        <v>0.99411384954823234</v>
+      </c>
+      <c r="U101">
+        <v>102</v>
+      </c>
+      <c r="V101">
+        <v>84.906123308270679</v>
+      </c>
+      <c r="W101">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>17</v>
+      </c>
+      <c r="D102">
+        <v>2947.3684210526317</v>
+      </c>
+      <c r="E102">
+        <v>2451.8421052631579</v>
+      </c>
+      <c r="F102">
+        <v>31.746130160788294</v>
+      </c>
+      <c r="G102">
+        <v>87.351315789473688</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>101</v>
+      </c>
+      <c r="J102">
+        <v>87.351315789473688</v>
+      </c>
+      <c r="K102">
+        <v>0.125</v>
+      </c>
+      <c r="O102">
+        <v>17</v>
+      </c>
+      <c r="P102">
+        <v>2947.3684210526317</v>
+      </c>
+      <c r="Q102">
+        <v>2451.8421052631579</v>
+      </c>
+      <c r="R102">
+        <v>146.27544167602196</v>
+      </c>
+      <c r="S102">
+        <v>87.351315789473688</v>
+      </c>
+      <c r="T102">
+        <v>0.99410971204915299</v>
+      </c>
+      <c r="U102">
+        <v>102</v>
+      </c>
+      <c r="V102">
+        <v>87.351315789473688</v>
+      </c>
+      <c r="W102">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="103" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>18</v>
+      </c>
+      <c r="D103">
+        <v>3131.5789473684213</v>
+      </c>
+      <c r="E103">
+        <v>2467.8947368421054</v>
+      </c>
+      <c r="F103">
+        <v>31.787595735449326</v>
+      </c>
+      <c r="G103">
+        <v>88.234210526315806</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>101</v>
+      </c>
+      <c r="J103">
+        <v>88.234210526315806</v>
+      </c>
+      <c r="K103">
+        <v>0.125</v>
+      </c>
+      <c r="O103">
+        <v>18</v>
+      </c>
+      <c r="P103">
+        <v>3131.5789473684213</v>
+      </c>
+      <c r="Q103">
+        <v>2467.8947368421054</v>
+      </c>
+      <c r="R103">
+        <v>147.51747252066414</v>
+      </c>
+      <c r="S103">
+        <v>88.234210526315806</v>
+      </c>
+      <c r="T103">
+        <v>0.9941064706208127</v>
+      </c>
+      <c r="U103">
+        <v>102</v>
+      </c>
+      <c r="V103">
+        <v>88.234210526315806</v>
+      </c>
+      <c r="W103">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="104" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>19</v>
+      </c>
+      <c r="D104">
+        <v>3315.7894736842109</v>
+      </c>
+      <c r="E104">
+        <v>2483.9473684210529</v>
+      </c>
+      <c r="F104">
+        <v>31.828995068669133</v>
+      </c>
+      <c r="G104">
+        <v>89.11710526315791</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>101</v>
+      </c>
+      <c r="J104">
+        <v>89.11710526315791</v>
+      </c>
+      <c r="K104">
+        <v>0.125</v>
+      </c>
+      <c r="O104">
+        <v>19</v>
+      </c>
+      <c r="P104">
+        <v>3315.7894736842109</v>
+      </c>
+      <c r="Q104">
+        <v>2483.9473684210529</v>
+      </c>
+      <c r="R104">
+        <v>148.75899228149797</v>
+      </c>
+      <c r="S104">
+        <v>89.11710526315791</v>
+      </c>
+      <c r="T104">
+        <v>0.99410276608323112</v>
+      </c>
+      <c r="U104">
+        <v>102</v>
+      </c>
+      <c r="V104">
+        <v>89.11710526315791</v>
+      </c>
+      <c r="W104">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="105" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>3500</v>
+      </c>
+      <c r="E105">
+        <v>2500</v>
+      </c>
+      <c r="F105">
+        <v>31.870328548727464</v>
+      </c>
+      <c r="G105">
+        <v>90</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>101</v>
+      </c>
+      <c r="J105">
+        <v>90</v>
+      </c>
+      <c r="K105">
+        <v>0.125</v>
+      </c>
+      <c r="O105">
+        <v>20</v>
+      </c>
+      <c r="P105">
+        <v>3500</v>
+      </c>
+      <c r="Q105">
+        <v>2500</v>
+      </c>
+      <c r="R105">
+        <v>150</v>
+      </c>
+      <c r="S105">
+        <v>90</v>
+      </c>
+      <c r="T105">
+        <v>0.99409861341233763</v>
+      </c>
+      <c r="U105">
+        <v>102</v>
+      </c>
+      <c r="V105">
+        <v>90</v>
+      </c>
+      <c r="W105">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="108" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" cm="1">
+        <f t="array" ref="D108">[1]!crv_intersection(D86:D105,F86:F105,P86:P105,R86:R105)</f>
+        <v>972.20075729028622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/examples/ex051.MF_pipeline.xlsx
+++ b/examples/ex051.MF_pipeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE015496-0D54-4971-A679-0DEC0317C57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1308DFC7-C0B6-4296-81F5-50D9E8D23A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{52E28BDD-AE60-49A1-BCFC-DEAA796E2D5C}"/>
+    <workbookView xWindow="780" yWindow="-20820" windowWidth="31530" windowHeight="19905" xr2:uid="{52E28BDD-AE60-49A1-BCFC-DEAA796E2D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
+    <definedName name="feed_json">Лист1!$I$58</definedName>
     <definedName name="pipe_construction">Лист1!$Q$4</definedName>
     <definedName name="pipe_object">Лист1!$S$31</definedName>
+    <definedName name="PVT_json">Лист1!$I$53</definedName>
     <definedName name="t_model">Лист1!$Q$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,8 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>trajectory</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>4. Запустить пример расчета распределения давления и температуры в трубе</t>
+  </si>
+  <si>
+    <t>gamma_gas</t>
+  </si>
+  <si>
+    <t>gamma_oil</t>
+  </si>
+  <si>
+    <t>gamma_wat</t>
+  </si>
+  <si>
+    <t>rsb_m3m3</t>
+  </si>
+  <si>
+    <t>pb_atma</t>
+  </si>
+  <si>
+    <t>t_res_C</t>
+  </si>
+  <si>
+    <t>bob_m3m3</t>
+  </si>
+  <si>
+    <t>muob_cP</t>
+  </si>
+  <si>
+    <t>pvt_corr_set</t>
+  </si>
+  <si>
+    <t>PVT</t>
   </si>
 </sst>
 </file>
@@ -332,64 +362,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.382340650400337</c:v>
+                  <c:v>24.836360057558057</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.369222249982833</c:v>
+                  <c:v>39.660912169855287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.235098269119753</c:v>
+                  <c:v>54.473728023011631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.947911242525024</c:v>
+                  <c:v>69.274877304399666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.00729056417785</c:v>
+                  <c:v>84.064262054326051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.666494542562518</c:v>
+                  <c:v>98.841955005012849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.192463420676702</c:v>
+                  <c:v>113.60819486374973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106.10446404258369</c:v>
+                  <c:v>128.36305394047776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116.24710999851564</c:v>
+                  <c:v>143.10660666796306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126.27329543079401</c:v>
+                  <c:v>157.83860705561924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>136.18755283448164</c:v>
+                  <c:v>172.55946291726846</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>145.9943761710272</c:v>
+                  <c:v>187.26925720901431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>155.69830991372984</c:v>
+                  <c:v>201.96807608679808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>165.28460789209592</c:v>
+                  <c:v>216.65585276159905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>174.0541851495523</c:v>
+                  <c:v>231.33268489206455</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>176.40915429020524</c:v>
+                  <c:v>233.09334496046432</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>182.44123403347325</c:v>
+                  <c:v>245.98725456824823</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190.77003183492977</c:v>
+                  <c:v>260.62969555631469</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>199.04259166672151</c:v>
+                  <c:v>275.2616896761848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -404,58 +434,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.05882352941177</c:v>
+                  <c:v>138.88888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>294.11764705882354</c:v>
+                  <c:v>277.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>441.1764705882353</c:v>
+                  <c:v>416.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>555.55555555555554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>588.23529411764707</c:v>
+                  <c:v>694.44444444444446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>735.29411764705878</c:v>
+                  <c:v>833.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>882.35294117647061</c:v>
+                  <c:v>972.22222222222217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1029.4117647058824</c:v>
+                  <c:v>1111.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1176.4705882352941</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1323.5294117647059</c:v>
+                  <c:v>1388.8888888888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1470.5882352941176</c:v>
+                  <c:v>1527.7777777777778</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1617.6470588235295</c:v>
+                  <c:v>1666.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1764.7058823529412</c:v>
+                  <c:v>1805.5555555555554</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1911.7647058823529</c:v>
+                  <c:v>1944.4444444444443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2058.8235294117649</c:v>
+                  <c:v>2083.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2205.8823529411766</c:v>
+                  <c:v>2222.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2352.9411764705883</c:v>
+                  <c:v>2361.1111111111109</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2500</c:v>
@@ -913,61 +943,61 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.676470588235293</c:v>
+                  <c:v>12.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.352941176470587</c:v>
+                  <c:v>15.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.029411764705884</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.5</c:v>
+                  <c:v>20.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.705882352941178</c:v>
+                  <c:v>23.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.382352941176471</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.058823529411768</c:v>
+                  <c:v>28.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.191176470588239</c:v>
+                  <c:v>31.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.147058823529413</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.102941176470587</c:v>
+                  <c:v>36.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.058823529411761</c:v>
+                  <c:v>39.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60.014705882352942</c:v>
+                  <c:v>41.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.970588235294116</c:v>
+                  <c:v>44.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.92647058823529</c:v>
+                  <c:v>47.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77.617647058823536</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.099999999999994</c:v>
+                  <c:v>50.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81.294117647058826</c:v>
+                  <c:v>52.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.647058823529406</c:v>
+                  <c:v>55.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>86</c:v>
+                  <c:v>57.999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,61 +1012,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.05882352941177</c:v>
+                  <c:v>138.88888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>294.11764705882354</c:v>
+                  <c:v>277.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>441.1764705882353</c:v>
+                  <c:v>416.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>555.55555555555554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>588.23529411764707</c:v>
+                  <c:v>694.44444444444446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>735.29411764705878</c:v>
+                  <c:v>833.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>882.35294117647061</c:v>
+                  <c:v>972.22222222222217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1026.4705882352941</c:v>
+                  <c:v>1111.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1158.8235294117646</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1291.1764705882354</c:v>
+                  <c:v>1388.8888888888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1423.5294117647059</c:v>
+                  <c:v>1527.7777777777778</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1555.8823529411766</c:v>
+                  <c:v>1666.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1688.2352941176471</c:v>
+                  <c:v>1805.5555555555554</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1820.5882352941176</c:v>
+                  <c:v>1944.4444444444443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1947.0588235294119</c:v>
+                  <c:v>2083.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1980</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2064.7058823529414</c:v>
+                  <c:v>2222.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2182.3529411764707</c:v>
+                  <c:v>2361.1111111111109</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2300</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,61 +1118,61 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.676470588235293</c:v>
+                  <c:v>12.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.352941176470587</c:v>
+                  <c:v>15.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.029411764705884</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.5</c:v>
+                  <c:v>20.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.705882352941178</c:v>
+                  <c:v>23.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.382352941176471</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.058823529411768</c:v>
+                  <c:v>28.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.191176470588239</c:v>
+                  <c:v>31.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.147058823529413</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.102941176470587</c:v>
+                  <c:v>36.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.058823529411761</c:v>
+                  <c:v>39.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60.014705882352942</c:v>
+                  <c:v>41.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.970588235294116</c:v>
+                  <c:v>44.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.92647058823529</c:v>
+                  <c:v>47.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77.617647058823536</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.099999999999994</c:v>
+                  <c:v>50.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81.294117647058826</c:v>
+                  <c:v>52.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.647058823529406</c:v>
+                  <c:v>55.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>86</c:v>
+                  <c:v>57.999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,61 +1187,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.05882352941177</c:v>
+                  <c:v>138.88888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>294.11764705882354</c:v>
+                  <c:v>277.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>441.1764705882353</c:v>
+                  <c:v>416.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>555.55555555555554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>588.23529411764707</c:v>
+                  <c:v>694.44444444444446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>735.29411764705878</c:v>
+                  <c:v>833.33333333333326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>882.35294117647061</c:v>
+                  <c:v>972.22222222222217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1026.4705882352941</c:v>
+                  <c:v>1111.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1158.8235294117646</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1291.1764705882354</c:v>
+                  <c:v>1388.8888888888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1423.5294117647059</c:v>
+                  <c:v>1527.7777777777778</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1555.8823529411766</c:v>
+                  <c:v>1666.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1688.2352941176471</c:v>
+                  <c:v>1805.5555555555554</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1820.5882352941176</c:v>
+                  <c:v>1944.4444444444443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1947.0588235294119</c:v>
+                  <c:v>2083.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1980</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2064.7058823529414</c:v>
+                  <c:v>2222.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2182.3529411764707</c:v>
+                  <c:v>2361.1111111111109</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2300</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,11 +3320,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Info"/>
     </sheetNames>
@@ -3302,6 +3329,7 @@
       <definedName name="encode_feed"/>
       <definedName name="encode_pipe"/>
       <definedName name="encode_pipe_construction"/>
+      <definedName name="encode_PVT"/>
       <definedName name="encode_t_model"/>
       <definedName name="MF_pipe_p_atma"/>
     </definedNames>
@@ -3609,36 +3637,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B18ED9F-76C8-4FA4-B5AD-788BF17B54D3}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="B1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="3" t="str">
         <f>[1]!encode_pipe_construction(P7:Q10,R7:S10)</f>
-        <v>{"h_list_m":{"hmes_m":[0,1000,2000,2500],"hvert_m":[0,1000,1900,2300]},"diam_list_mm":{"hmes_m":[0,500,2100,2500],"diam_int_mm":[62,72,125,125]}}</v>
+        <v>{"h_list_m":{"hmes_m":[0,1000,2000,2500],"hvert_m":[0,1000,2000,2500]},"diam_list_mm":{"hmes_m":[0,500,2100,2500],"diam_int_mm":[62,62,125,125]}}</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3648,7 +3677,7 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3662,7 +3691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P7" s="2">
         <v>0</v>
       </c>
@@ -3676,7 +3705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P8" s="2">
         <v>1000</v>
       </c>
@@ -3687,15 +3716,15 @@
         <v>500</v>
       </c>
       <c r="S8" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P9" s="2">
         <v>2000</v>
       </c>
       <c r="Q9" s="2">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="R9" s="4">
         <v>2100</v>
@@ -3704,37 +3733,37 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P10" s="2">
         <v>2500</v>
       </c>
       <c r="Q10" s="2">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q13" s="3" t="str">
         <f>[1]!encode_t_model(1,P16:Q19)</f>
-        <v>{"t_model":1,"t_list_C":{"hvert_m":[0,1000,2000,2500],"t_C":[10,35,80,90]}}</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+        <v>{"t_model":1,"t_list_C":{"hvert_m":[0,2500],"t_C":[10,58]}}</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P15" s="1" t="s">
         <v>3</v>
       </c>
@@ -3742,7 +3771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P16" s="2">
         <v>0</v>
       </c>
@@ -3750,54 +3779,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="P17" s="2">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q17" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="P18" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="P19" s="2">
-        <v>2500</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S22" s="5" t="str">
         <f>pipe_construction</f>
-        <v>{"h_list_m":{"hmes_m":[0,1000,2000,2500],"hvert_m":[0,1000,1900,2300]},"diam_list_mm":{"hmes_m":[0,500,2100,2500],"diam_int_mm":[62,72,125,125]}}</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+        <v>{"h_list_m":{"hmes_m":[0,1000,2000,2500],"hvert_m":[0,1000,2000,2500]},"diam_list_mm":{"hmes_m":[0,500,2100,2500],"diam_int_mm":[62,62,125,125]}}</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="S23" s="5" t="str">
         <f>t_model</f>
-        <v>{"t_model":1,"t_list_C":{"hvert_m":[0,1000,2000,2500],"t_C":[10,35,80,90]}}</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+        <v>{"t_model":1,"t_list_C":{"hvert_m":[0,2500],"t_C":[10,58]}}</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R24" s="1" t="s">
         <v>10</v>
       </c>
@@ -3805,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3813,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R26" s="1" t="s">
         <v>12</v>
       </c>
@@ -3821,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R27" s="1" t="s">
         <v>13</v>
       </c>
@@ -3829,25 +3850,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -3856,18 +3877,18 @@
       </c>
       <c r="S31" s="3" t="str">
         <f>[1]!encode_pipe(S22,S23,S24,S25,S26,S27,S28,S29,S30)</f>
-        <v>{"construction":{"h_list_m":{"hmes_m":[0,1000,2000,2500],"hvert_m":[0,1000,1900,2300]},"diam_list_mm":{"hmes_m":[0,500,2100,2500],"diam_int_mm":[62,72,125,125]}},"t_model":{"t_model":1,"t_list_C":{"hvert_m":[0,1000,2000,2500],"t_C":[10,35,80,90]}},"flow_correlation":0,"flow_along_coord":false,"calibr_grav":1,"calibr_fric":1,"h_start_m":0,"h_end_m":0,"znlf":false}</v>
-      </c>
-    </row>
-    <row r="34" spans="18:25" x14ac:dyDescent="0.35">
+        <v>{"construction":{"h_list_m":{"hmes_m":[0,1000,2000,2500],"hvert_m":[0,1000,2000,2500]},"diam_list_mm":{"hmes_m":[0,500,2100,2500],"diam_int_mm":[62,62,125,125]}},"t_model":{"t_model":1,"t_list_C":{"hvert_m":[0,2500],"t_C":[10,58]}},"flow_correlation":0,"flow_along_coord":false,"calibr_grav":1,"calibr_fric":1,"h_start_m":0,"h_end_m":0,"znlf":false}</v>
+      </c>
+    </row>
+    <row r="34" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="S34" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="18:25" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R35" s="1" t="s">
         <v>19</v>
       </c>
@@ -3875,25 +3896,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="S36" s="5" t="str">
         <f>pipe_object</f>
-        <v>{"construction":{"h_list_m":{"hmes_m":[0,1000,2000,2500],"hvert_m":[0,1000,1900,2300]},"diam_list_mm":{"hmes_m":[0,500,2100,2500],"diam_int_mm":[62,72,125,125]}},"t_model":{"t_model":1,"t_list_C":{"hvert_m":[0,1000,2000,2500],"t_C":[10,35,80,90]}},"flow_correlation":0,"flow_along_coord":false,"calibr_grav":1,"calibr_fric":1,"h_start_m":0,"h_end_m":0,"znlf":false}</v>
-      </c>
-    </row>
-    <row r="37" spans="18:25" x14ac:dyDescent="0.35">
+        <v>{"construction":{"h_list_m":{"hmes_m":[0,1000,2000,2500],"hvert_m":[0,1000,2000,2500]},"diam_list_mm":{"hmes_m":[0,500,2100,2500],"diam_int_mm":[62,62,125,125]}},"t_model":{"t_model":1,"t_list_C":{"hvert_m":[0,2500],"t_C":[10,58]}},"flow_correlation":0,"flow_along_coord":false,"calibr_grav":1,"calibr_fric":1,"h_start_m":0,"h_end_m":0,"znlf":false}</v>
+      </c>
+    </row>
+    <row r="37" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S37" s="5" t="str">
-        <f>[1]!encode_feed()</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1,"rsb_m3m3":100,"q_liq_sm3day":10}</v>
-      </c>
-    </row>
-    <row r="38" spans="18:25" x14ac:dyDescent="0.35">
+        <f>feed_json</f>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":50,"fw_perc":100,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="38" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R38" s="1" t="s">
         <v>22</v>
       </c>
@@ -3901,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R39" s="1" t="s">
         <v>23</v>
       </c>
@@ -3909,46 +3930,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.6</v>
+      </c>
       <c r="R44" s="6">
         <f t="array" ref="R44:Y66">[1]!MF_pipe_p_atma(S34, S35, S36, S37, S38, S39, S40, S41, S42, S43)</f>
-        <v>199.04300000000001</v>
+        <v>275.262</v>
       </c>
       <c r="S44" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T44" s="6">
         <v>10</v>
       </c>
       <c r="U44" s="6">
-        <v>199.04300000000001</v>
+        <v>275.262</v>
       </c>
       <c r="V44" s="6">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="W44" s="6">
         <v>1</v>
@@ -3960,7 +3987,13 @@
         <v>["set show_log=1 in param to show calc log"]</v>
       </c>
     </row>
-    <row r="45" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.86</v>
+      </c>
       <c r="R45" s="6" t="str">
         <v>p_result_atma</v>
       </c>
@@ -3986,7 +4019,13 @@
         <v>log</v>
       </c>
     </row>
-    <row r="46" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="R46" s="6" t="str">
         <v>h,m</v>
       </c>
@@ -4012,7 +4051,13 @@
         <v>diam, mm</v>
       </c>
     </row>
-    <row r="47" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="2">
+        <v>120</v>
+      </c>
       <c r="R47" s="6">
         <v>0</v>
       </c>
@@ -4020,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="U47" s="6">
         <v>10</v>
@@ -4029,7 +4074,7 @@
         <v>10</v>
       </c>
       <c r="W47" s="6">
-        <v>85.471270790521913</v>
+        <v>100</v>
       </c>
       <c r="X47" s="6">
         <v>3</v>
@@ -4038,24 +4083,30 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="2">
+        <v>130</v>
+      </c>
       <c r="R48" s="6">
-        <v>147.05882352941177</v>
+        <v>138.88888888888889</v>
       </c>
       <c r="S48" s="6">
-        <v>147.05882352941177</v>
+        <v>138.88888888888889</v>
       </c>
       <c r="T48" s="6">
-        <v>36.382340650400337</v>
+        <v>24.836360057558057</v>
       </c>
       <c r="U48" s="6">
-        <v>13.676470588235293</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="V48" s="6">
-        <v>13.676470588235293</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="W48" s="6">
-        <v>99.24589773479029</v>
+        <v>100</v>
       </c>
       <c r="X48" s="6">
         <v>3</v>
@@ -4064,24 +4115,30 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="2">
+        <v>80</v>
+      </c>
       <c r="R49" s="6">
-        <v>294.11764705882354</v>
+        <v>277.77777777777777</v>
       </c>
       <c r="S49" s="6">
-        <v>294.11764705882354</v>
+        <v>277.77777777777777</v>
       </c>
       <c r="T49" s="6">
-        <v>48.369222249982833</v>
+        <v>39.660912169855287</v>
       </c>
       <c r="U49" s="6">
-        <v>17.352941176470587</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="V49" s="6">
-        <v>17.352941176470587</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="W49" s="6">
-        <v>99.336939295122292</v>
+        <v>100</v>
       </c>
       <c r="X49" s="6">
         <v>3</v>
@@ -4090,24 +4147,30 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1.2</v>
+      </c>
       <c r="R50" s="6">
-        <v>441.1764705882353</v>
+        <v>416.66666666666663</v>
       </c>
       <c r="S50" s="6">
-        <v>441.1764705882353</v>
+        <v>416.66666666666663</v>
       </c>
       <c r="T50" s="6">
-        <v>60.235098269119753</v>
+        <v>54.473728023011631</v>
       </c>
       <c r="U50" s="6">
-        <v>21.029411764705884</v>
+        <v>18</v>
       </c>
       <c r="V50" s="6">
-        <v>21.029411764705884</v>
+        <v>18</v>
       </c>
       <c r="W50" s="6">
-        <v>99.428325443765857</v>
+        <v>100</v>
       </c>
       <c r="X50" s="6">
         <v>3</v>
@@ -4116,417 +4179,467 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.6</v>
+      </c>
       <c r="R51" s="6">
-        <v>500</v>
+        <v>555.55555555555554</v>
       </c>
       <c r="S51" s="6">
-        <v>500</v>
+        <v>555.55555555555554</v>
       </c>
       <c r="T51" s="6">
-        <v>64.947911242525024</v>
+        <v>69.274877304399666</v>
       </c>
       <c r="U51" s="6">
-        <v>22.5</v>
+        <v>20.666666666666664</v>
       </c>
       <c r="V51" s="6">
-        <v>22.5</v>
+        <v>20.666666666666664</v>
       </c>
       <c r="W51" s="6">
-        <v>99.976010537137185</v>
+        <v>100</v>
       </c>
       <c r="X51" s="6">
         <v>3</v>
       </c>
       <c r="Y51" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="52" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
       <c r="R52" s="6">
-        <v>588.23529411764707</v>
+        <v>694.44444444444446</v>
       </c>
       <c r="S52" s="6">
-        <v>588.23529411764707</v>
+        <v>694.44444444444446</v>
       </c>
       <c r="T52" s="6">
-        <v>72.00729056417785</v>
+        <v>84.064262054326051</v>
       </c>
       <c r="U52" s="6">
-        <v>24.705882352941178</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="V52" s="6">
-        <v>24.705882352941178</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="W52" s="6">
-        <v>99.959478124367394</v>
+        <v>100</v>
       </c>
       <c r="X52" s="6">
         <v>3</v>
       </c>
       <c r="Y52" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="53" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" s="3" t="str">
+        <f>[1]!encode_PVT(I44,I45,I46,I47,I48,I49,I50,I51,I52)</f>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0}</v>
+      </c>
       <c r="R53" s="6">
-        <v>735.29411764705878</v>
+        <v>833.33333333333326</v>
       </c>
       <c r="S53" s="6">
-        <v>735.29411764705878</v>
+        <v>833.33333333333326</v>
       </c>
       <c r="T53" s="6">
-        <v>83.666494542562518</v>
+        <v>98.841955005012849</v>
       </c>
       <c r="U53" s="6">
-        <v>28.382352941176471</v>
+        <v>26</v>
       </c>
       <c r="V53" s="6">
-        <v>28.382352941176471</v>
+        <v>26</v>
       </c>
       <c r="W53" s="6">
-        <v>99.944966149157011</v>
+        <v>100</v>
       </c>
       <c r="X53" s="6">
         <v>3</v>
       </c>
       <c r="Y53" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="54" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="2">
+        <v>50</v>
+      </c>
       <c r="R54" s="6">
-        <v>882.35294117647061</v>
+        <v>972.22222222222217</v>
       </c>
       <c r="S54" s="6">
-        <v>882.35294117647061</v>
+        <v>972.22222222222217</v>
       </c>
       <c r="T54" s="6">
-        <v>95.192463420676702</v>
+        <v>113.60819486374973</v>
       </c>
       <c r="U54" s="6">
-        <v>32.058823529411768</v>
+        <v>28.666666666666664</v>
       </c>
       <c r="V54" s="6">
-        <v>32.058823529411768</v>
+        <v>28.666666666666664</v>
       </c>
       <c r="W54" s="6">
-        <v>99.938971032093662</v>
+        <v>100</v>
       </c>
       <c r="X54" s="6">
         <v>3</v>
       </c>
       <c r="Y54" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="55" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="2">
+        <v>100</v>
+      </c>
       <c r="R55" s="6">
-        <v>1029.4117647058824</v>
+        <v>1111.1111111111111</v>
       </c>
       <c r="S55" s="6">
-        <v>1026.4705882352941</v>
+        <v>1111.1111111111111</v>
       </c>
       <c r="T55" s="6">
-        <v>106.10446404258369</v>
+        <v>128.36305394047776</v>
       </c>
       <c r="U55" s="6">
-        <v>36.191176470588239</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="V55" s="6">
-        <v>36.191176470588239</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="W55" s="6">
-        <v>99.972417066200819</v>
+        <v>100</v>
       </c>
       <c r="X55" s="6">
         <v>3</v>
       </c>
       <c r="Y55" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="56" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="2">
+        <v>120</v>
+      </c>
       <c r="R56" s="6">
-        <v>1176.4705882352941</v>
+        <v>1250</v>
       </c>
       <c r="S56" s="6">
-        <v>1158.8235294117646</v>
+        <v>1250</v>
       </c>
       <c r="T56" s="6">
-        <v>116.24710999851564</v>
+        <v>143.10660666796306</v>
       </c>
       <c r="U56" s="6">
-        <v>42.147058823529413</v>
+        <v>34</v>
       </c>
       <c r="V56" s="6">
-        <v>42.147058823529413</v>
+        <v>34</v>
       </c>
       <c r="W56" s="6">
-        <v>99.970808729195454</v>
+        <v>100</v>
       </c>
       <c r="X56" s="6">
         <v>3</v>
       </c>
       <c r="Y56" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="57" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
       <c r="R57" s="6">
-        <v>1323.5294117647059</v>
+        <v>1388.8888888888889</v>
       </c>
       <c r="S57" s="6">
-        <v>1291.1764705882354</v>
+        <v>1388.8888888888889</v>
       </c>
       <c r="T57" s="6">
-        <v>126.27329543079401</v>
+        <v>157.83860705561924</v>
       </c>
       <c r="U57" s="6">
-        <v>48.102941176470587</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="V57" s="6">
-        <v>48.102941176470587</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="W57" s="6">
-        <v>99.968937691628938</v>
+        <v>100</v>
       </c>
       <c r="X57" s="6">
         <v>3</v>
       </c>
       <c r="Y57" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="58" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
+      <c r="H58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="3" t="str">
+        <f>[1]!encode_feed(I54,I55,I56,I57,I53)</f>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":50,"fw_perc":100,"rp_m3m3":120}</v>
+      </c>
       <c r="R58" s="6">
-        <v>1470.5882352941176</v>
+        <v>1527.7777777777778</v>
       </c>
       <c r="S58" s="6">
-        <v>1423.5294117647059</v>
+        <v>1527.7777777777778</v>
       </c>
       <c r="T58" s="6">
-        <v>136.18755283448164</v>
+        <v>172.55946291726846</v>
       </c>
       <c r="U58" s="6">
-        <v>54.058823529411761</v>
+        <v>39.333333333333329</v>
       </c>
       <c r="V58" s="6">
-        <v>54.058823529411761</v>
+        <v>39.333333333333329</v>
       </c>
       <c r="W58" s="6">
-        <v>99.966723396679313</v>
+        <v>100</v>
       </c>
       <c r="X58" s="6">
         <v>3</v>
       </c>
       <c r="Y58" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="59" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R59" s="6">
-        <v>1617.6470588235295</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="S59" s="6">
-        <v>1555.8823529411766</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="T59" s="6">
-        <v>145.9943761710272</v>
+        <v>187.26925720901431</v>
       </c>
       <c r="U59" s="6">
-        <v>60.014705882352942</v>
+        <v>41.999999999999993</v>
       </c>
       <c r="V59" s="6">
-        <v>60.014705882352942</v>
+        <v>41.999999999999993</v>
       </c>
       <c r="W59" s="6">
-        <v>99.964181680946794</v>
+        <v>100</v>
       </c>
       <c r="X59" s="6">
         <v>3</v>
       </c>
       <c r="Y59" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="60" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R60" s="6">
-        <v>1764.7058823529412</v>
+        <v>1805.5555555555554</v>
       </c>
       <c r="S60" s="6">
-        <v>1688.2352941176471</v>
+        <v>1805.5555555555554</v>
       </c>
       <c r="T60" s="6">
-        <v>155.69830991372984</v>
+        <v>201.96807608679808</v>
       </c>
       <c r="U60" s="6">
-        <v>65.970588235294116</v>
+        <v>44.666666666666657</v>
       </c>
       <c r="V60" s="6">
-        <v>65.970588235294116</v>
+        <v>44.666666666666657</v>
       </c>
       <c r="W60" s="6">
-        <v>99.961353699282455</v>
+        <v>100</v>
       </c>
       <c r="X60" s="6">
         <v>3</v>
       </c>
       <c r="Y60" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="61" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R61" s="6">
-        <v>1911.7647058823529</v>
+        <v>1944.4444444444443</v>
       </c>
       <c r="S61" s="6">
-        <v>1820.5882352941176</v>
+        <v>1944.4444444444443</v>
       </c>
       <c r="T61" s="6">
-        <v>165.28460789209592</v>
+        <v>216.65585276159905</v>
       </c>
       <c r="U61" s="6">
-        <v>71.92647058823529</v>
+        <v>47.333333333333329</v>
       </c>
       <c r="V61" s="6">
-        <v>71.92647058823529</v>
+        <v>47.333333333333329</v>
       </c>
       <c r="W61" s="6">
-        <v>99.958478906259359</v>
+        <v>100</v>
       </c>
       <c r="X61" s="6">
         <v>3</v>
       </c>
       <c r="Y61" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="62" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R62" s="6">
-        <v>2058.8235294117649</v>
+        <v>2083.3333333333335</v>
       </c>
       <c r="S62" s="6">
-        <v>1947.0588235294119</v>
+        <v>2083.3333333333335</v>
       </c>
       <c r="T62" s="6">
-        <v>174.0541851495523</v>
+        <v>231.33268489206455</v>
       </c>
       <c r="U62" s="6">
-        <v>77.617647058823536</v>
+        <v>50</v>
       </c>
       <c r="V62" s="6">
-        <v>77.617647058823536</v>
+        <v>50</v>
       </c>
       <c r="W62" s="6">
-        <v>99.955843640935882</v>
+        <v>100</v>
       </c>
       <c r="X62" s="6">
         <v>3</v>
       </c>
       <c r="Y62" s="6">
-        <v>72.000000000000014</v>
-      </c>
-    </row>
-    <row r="63" spans="18:25" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R63" s="6">
         <v>2100</v>
       </c>
       <c r="S63" s="6">
-        <v>1980</v>
+        <v>2100</v>
       </c>
       <c r="T63" s="6">
-        <v>176.40915429020524</v>
+        <v>233.09334496046432</v>
       </c>
       <c r="U63" s="6">
-        <v>79.099999999999994</v>
+        <v>50.319999999999993</v>
       </c>
       <c r="V63" s="6">
-        <v>79.099999999999994</v>
+        <v>50.319999999999993</v>
       </c>
       <c r="W63" s="6">
         <v>100</v>
       </c>
       <c r="X63" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y63" s="6">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R64" s="6">
-        <v>2205.8823529411766</v>
+        <v>2222.2222222222222</v>
       </c>
       <c r="S64" s="6">
-        <v>2064.7058823529414</v>
+        <v>2222.2222222222222</v>
       </c>
       <c r="T64" s="6">
-        <v>182.44123403347325</v>
+        <v>245.98725456824823</v>
       </c>
       <c r="U64" s="6">
-        <v>81.294117647058826</v>
+        <v>52.666666666666664</v>
       </c>
       <c r="V64" s="6">
-        <v>81.294117647058826</v>
+        <v>52.666666666666664</v>
       </c>
       <c r="W64" s="6">
         <v>100</v>
       </c>
       <c r="X64" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y64" s="6">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R65" s="6">
-        <v>2352.9411764705883</v>
+        <v>2361.1111111111109</v>
       </c>
       <c r="S65" s="6">
-        <v>2182.3529411764707</v>
+        <v>2361.1111111111109</v>
       </c>
       <c r="T65" s="6">
-        <v>190.77003183492977</v>
+        <v>260.62969555631469</v>
       </c>
       <c r="U65" s="6">
-        <v>83.647058823529406</v>
+        <v>55.333333333333329</v>
       </c>
       <c r="V65" s="6">
-        <v>83.647058823529406</v>
+        <v>55.333333333333329</v>
       </c>
       <c r="W65" s="6">
         <v>100</v>
       </c>
       <c r="X65" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y65" s="6">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="18:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R66" s="6">
         <v>2500</v>
       </c>
       <c r="S66" s="6">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="T66" s="6">
-        <v>199.04259166672151</v>
+        <v>275.2616896761848</v>
       </c>
       <c r="U66" s="6">
-        <v>86</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="V66" s="6">
-        <v>86</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="W66" s="6">
         <v>100</v>
       </c>
       <c r="X66" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y66" s="6">
         <v>125</v>

--- a/examples/ex051.MF_pipeline.xlsx
+++ b/examples/ex051.MF_pipeline.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1308DFC7-C0B6-4296-81F5-50D9E8D23A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="-20820" windowWidth="31530" windowHeight="19905" xr2:uid="{52E28BDD-AE60-49A1-BCFC-DEAA796E2D5C}"/>
+    <workbookView xWindow="780" yWindow="-20820" windowWidth="31530" windowHeight="19905"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="PVT_json">Лист1!$I$53</definedName>
     <definedName name="t_model">Лист1!$Q$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -181,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,6 +289,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -558,6 +558,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -675,6 +676,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -755,6 +757,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -786,6 +789,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -793,7 +797,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -868,6 +871,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1311,6 +1315,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1428,6 +1433,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1508,6 +1514,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1539,6 +1546,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1546,7 +1554,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3636,12 +3643,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B18ED9F-76C8-4FA4-B5AD-788BF17B54D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:Y66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
